--- a/DSA/DSA Prep.xlsx
+++ b/DSA/DSA Prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/CodingProjects/GitHub/Placement-Preparation/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4849A-FA1B-CD4A-B388-3A1A9A2ACE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763C5D9-DA44-8048-B0DC-1B4E1246EC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Topic</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Redo: Tarjan's Algo and related Bridges and Articulation Points</t>
+  </si>
+  <si>
+    <t>Maximum Subarray XOR and Pair XOR important</t>
+  </si>
+  <si>
+    <t>Reverse Linked List, Cycle Detection etc (Two Pointer Stuff)</t>
   </si>
 </sst>
 </file>
@@ -559,12 +565,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,30 +586,36 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1784,8 +1790,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1826,92 +1832,92 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19">
+      <c r="G4" s="25"/>
+      <c r="H4" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="46" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17">
+      <c r="G5" s="26"/>
+      <c r="H5" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1924,64 +1930,64 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="15">
+      <c r="G6" s="26"/>
+      <c r="H6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="46" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
@@ -1992,44 +1998,44 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
@@ -2040,44 +2046,46 @@
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="46" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
@@ -2088,44 +2096,44 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="46" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="92" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
@@ -2136,50 +2144,50 @@
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="B20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11">
         <v>5</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11">
         <v>5</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
@@ -2190,46 +2198,46 @@
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="46" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="11">
         <v>5</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
@@ -2240,44 +2248,44 @@
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="46" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
@@ -2288,90 +2296,90 @@
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="B29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11">
         <v>5</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="15">
+      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11">
         <v>5</v>
       </c>
       <c r="F30" s="31"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="13">
         <v>4</v>
       </c>
       <c r="F31" s="31"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13">
         <v>4</v>
       </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
@@ -2382,71 +2390,72 @@
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="B34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11">
+        <v>5</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="B36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11">
+        <v>5</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A16:F16"/>
     <mergeCell ref="G4:G36"/>
     <mergeCell ref="H7:H36"/>
     <mergeCell ref="A25:F25"/>
@@ -2456,6 +2465,11 @@
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F29:F32"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/DSA/DSA Prep.xlsx
+++ b/DSA/DSA Prep.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/CodingProjects/GitHub/Placement-Preparation/DSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Coding/GitHub/Placement-Preparation/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763C5D9-DA44-8048-B0DC-1B4E1246EC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471385B-6C67-3C4F-97F8-D5E4AE89D56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="512">
   <si>
     <t>Topic</t>
   </si>
@@ -167,13 +168,1402 @@
   </si>
   <si>
     <t>Reverse Linked List, Cycle Detection etc (Two Pointer Stuff)</t>
+  </si>
+  <si>
+    <t>Topic:</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
+  </si>
+  <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
+  </si>
+  <si>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
+  </si>
+  <si>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
+  </si>
+  <si>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
+  </si>
+  <si>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+  </si>
+  <si>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
+  </si>
+  <si>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
+  </si>
+  <si>
+    <t>Dijkstra algo</t>
+  </si>
+  <si>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find maximum product subarray </t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
+  </si>
+  <si>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a tree is a BST or not </t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all permutations of a string </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implement Stack from Scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implement Queue from Scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Queue using Stack  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement BFS algorithm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement DFS Algo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Cycle in Directed Graph using BFS/DFS Algo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">word Ladder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Topological Sort </t>
+  </si>
+  <si>
+    <t>Done Yes or No</t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -206,8 +1596,42 @@
       <color indexed="8"/>
       <name val="Raleway"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Raleway"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +1702,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="19"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -544,10 +1974,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,23 +2026,17 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,8 +2050,39 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1790,8 +3246,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1832,14 +3288,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1892,7 +3348,7 @@
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="14">
         <v>3</v>
       </c>
@@ -1916,21 +3372,21 @@
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="11">
         <v>5</v>
       </c>
@@ -1950,8 +3406,8 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
@@ -1968,8 +3424,8 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="46" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
@@ -1986,20 +3442,20 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -2016,8 +3472,8 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
@@ -2034,20 +3490,20 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="46" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
@@ -2064,8 +3520,8 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -2084,20 +3540,20 @@
       <c r="F15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="46" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -2114,8 +3570,8 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="92" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
@@ -2132,20 +3588,20 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
@@ -2163,11 +3619,11 @@
       <c r="E20" s="11">
         <v>5</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
@@ -2185,21 +3641,21 @@
       <c r="E21" s="11">
         <v>5</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="46" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
@@ -2216,8 +3672,8 @@
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
@@ -2236,20 +3692,20 @@
         <v>5</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="46" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
@@ -2266,8 +3722,8 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
@@ -2284,20 +3740,20 @@
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
@@ -2315,11 +3771,11 @@
       <c r="E29" s="11">
         <v>5</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
@@ -2337,9 +3793,9 @@
       <c r="E30" s="11">
         <v>5</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
@@ -2357,9 +3813,9 @@
       <c r="E31" s="13">
         <v>4</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
@@ -2377,21 +3833,21 @@
       <c r="E32" s="13">
         <v>4</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" ht="46" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -2412,8 +3868,8 @@
       <c r="F34" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
@@ -2430,8 +3886,8 @@
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
@@ -2450,12 +3906,17 @@
         <v>5</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="G4:G36"/>
     <mergeCell ref="H7:H36"/>
     <mergeCell ref="A25:F25"/>
@@ -2465,11 +3926,6 @@
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F29:F32"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -2477,4 +3933,5463 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B4D300-67C5-CB4D-A2A7-F11D89CB56D4}">
+  <dimension ref="A1:Q449"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="104.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="26" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="35">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="35">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="35">
+        <v>19</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="35">
+        <v>20</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="35">
+        <v>21</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="35">
+        <v>22</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="35">
+        <v>23</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
+        <v>24</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
+        <v>25</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
+        <v>26</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="35">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="35">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="35">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="35">
+        <v>32</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="35">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="35">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="35">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="35">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="35">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="35">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="35">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="35">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="35">
+        <v>43</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="35">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="35">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="35">
+        <v>46</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="35">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="35">
+        <v>48</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="35">
+        <v>49</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="35">
+        <v>50</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="35">
+        <v>51</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="35">
+        <v>52</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="35">
+        <v>53</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="35">
+        <v>54</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="35">
+        <v>55</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="35">
+        <v>56</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="35">
+        <v>57</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="35">
+        <v>58</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="35">
+        <v>59</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="35">
+        <v>60</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="35">
+        <v>61</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="35">
+        <v>62</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="35">
+        <v>63</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="35">
+        <v>64</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="35">
+        <v>65</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="35">
+        <v>66</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="35">
+        <v>67</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="35">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="35">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="35">
+        <v>70</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="35">
+        <v>71</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="35">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="35">
+        <v>73</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="35">
+        <v>74</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="35">
+        <v>75</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="35">
+        <v>76</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="35">
+        <v>77</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="35">
+        <v>78</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="35">
+        <v>79</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="35">
+        <v>80</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="35">
+        <v>81</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="35">
+        <v>82</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="35">
+        <v>83</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="35">
+        <v>84</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="35">
+        <v>85</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="35">
+        <v>86</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="35">
+        <v>87</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="35">
+        <v>88</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="35">
+        <v>89</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="35">
+        <v>90</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="35">
+        <v>91</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="35">
+        <v>92</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="35">
+        <v>93</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="35">
+        <v>94</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="35">
+        <v>95</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="35">
+        <v>96</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="35">
+        <v>97</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="35">
+        <v>98</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="35">
+        <v>99</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="35">
+        <v>100</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="35">
+        <v>101</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="35">
+        <v>102</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="35">
+        <v>103</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="35">
+        <v>104</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="35">
+        <v>105</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="35">
+        <v>106</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="35">
+        <v>107</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="35">
+        <v>108</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="35">
+        <v>109</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="35">
+        <v>110</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="35">
+        <v>111</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="35">
+        <v>112</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="35">
+        <v>113</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="35">
+        <v>114</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="35">
+        <v>115</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="35">
+        <v>116</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="35">
+        <v>117</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="35">
+        <v>118</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="35">
+        <v>119</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="35">
+        <v>120</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="35">
+        <v>121</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="35">
+        <v>122</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="35">
+        <v>123</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="35">
+        <v>124</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="35">
+        <v>125</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="35">
+        <v>126</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="35">
+        <v>127</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="35">
+        <v>128</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="35">
+        <v>129</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="35">
+        <v>130</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="35">
+        <v>131</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="35">
+        <v>132</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="35">
+        <v>133</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="35">
+        <v>134</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="35">
+        <v>135</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="35">
+        <v>136</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="35">
+        <v>137</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="35">
+        <v>138</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="35">
+        <v>139</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="35">
+        <v>140</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="35">
+        <v>141</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="35">
+        <v>142</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="35">
+        <v>143</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="35">
+        <v>144</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="35">
+        <v>145</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="35">
+        <v>146</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="35">
+        <v>147</v>
+      </c>
+      <c r="B148" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="35">
+        <v>148</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="35">
+        <v>149</v>
+      </c>
+      <c r="B150" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="35">
+        <v>150</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="35">
+        <v>151</v>
+      </c>
+      <c r="B152" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="35">
+        <v>152</v>
+      </c>
+      <c r="B153" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="35">
+        <v>153</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="35">
+        <v>154</v>
+      </c>
+      <c r="B155" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="35">
+        <v>155</v>
+      </c>
+      <c r="B156" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="35">
+        <v>156</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="35">
+        <v>157</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="35">
+        <v>158</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="35">
+        <v>159</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="35">
+        <v>160</v>
+      </c>
+      <c r="B161" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="35">
+        <v>161</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="35">
+        <v>162</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="35">
+        <v>163</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="35">
+        <v>164</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="35">
+        <v>165</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="35">
+        <v>166</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="35">
+        <v>167</v>
+      </c>
+      <c r="B168" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="35">
+        <v>168</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="35">
+        <v>169</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="35">
+        <v>170</v>
+      </c>
+      <c r="B171" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="35">
+        <v>171</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="35">
+        <v>172</v>
+      </c>
+      <c r="B173" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="35">
+        <v>173</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="35">
+        <v>174</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="35">
+        <v>175</v>
+      </c>
+      <c r="B176" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="35">
+        <v>176</v>
+      </c>
+      <c r="B177" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="35">
+        <v>177</v>
+      </c>
+      <c r="B178" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="35">
+        <v>178</v>
+      </c>
+      <c r="B179" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="35">
+        <v>179</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C180" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="35">
+        <v>180</v>
+      </c>
+      <c r="B181" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="35">
+        <v>181</v>
+      </c>
+      <c r="B182" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="35">
+        <v>182</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="35">
+        <v>183</v>
+      </c>
+      <c r="B184" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="35">
+        <v>184</v>
+      </c>
+      <c r="B185" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="35">
+        <v>185</v>
+      </c>
+      <c r="B186" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="35">
+        <v>186</v>
+      </c>
+      <c r="B187" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="35">
+        <v>187</v>
+      </c>
+      <c r="B188" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="35">
+        <v>188</v>
+      </c>
+      <c r="B189" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="35">
+        <v>189</v>
+      </c>
+      <c r="B190" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C190" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="35">
+        <v>190</v>
+      </c>
+      <c r="B191" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="35">
+        <v>191</v>
+      </c>
+      <c r="B192" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="35">
+        <v>192</v>
+      </c>
+      <c r="B193" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="35">
+        <v>193</v>
+      </c>
+      <c r="B194" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C194" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="35">
+        <v>194</v>
+      </c>
+      <c r="B195" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C195" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="35">
+        <v>195</v>
+      </c>
+      <c r="B196" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C196" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="35">
+        <v>196</v>
+      </c>
+      <c r="B197" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="35">
+        <v>197</v>
+      </c>
+      <c r="B198" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="35">
+        <v>198</v>
+      </c>
+      <c r="B199" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C199" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="35">
+        <v>199</v>
+      </c>
+      <c r="B200" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C200" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="35">
+        <v>200</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="35">
+        <v>201</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202" s="37" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="35">
+        <v>202</v>
+      </c>
+      <c r="B203" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="35">
+        <v>203</v>
+      </c>
+      <c r="B204" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="35">
+        <v>204</v>
+      </c>
+      <c r="B205" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="35">
+        <v>205</v>
+      </c>
+      <c r="B206" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="35">
+        <v>206</v>
+      </c>
+      <c r="B207" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="35">
+        <v>207</v>
+      </c>
+      <c r="B208" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="35">
+        <v>208</v>
+      </c>
+      <c r="B209" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="35">
+        <v>209</v>
+      </c>
+      <c r="B210" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C210" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="35">
+        <v>210</v>
+      </c>
+      <c r="B211" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="35">
+        <v>211</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="35">
+        <v>212</v>
+      </c>
+      <c r="B213" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="35">
+        <v>213</v>
+      </c>
+      <c r="B214" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="35">
+        <v>214</v>
+      </c>
+      <c r="B215" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="35">
+        <v>215</v>
+      </c>
+      <c r="B216" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="35">
+        <v>216</v>
+      </c>
+      <c r="B217" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="35">
+        <v>217</v>
+      </c>
+      <c r="B218" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="35">
+        <v>218</v>
+      </c>
+      <c r="B219" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C219" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="35">
+        <v>219</v>
+      </c>
+      <c r="B220" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C220" s="37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="35">
+        <v>220</v>
+      </c>
+      <c r="B221" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C221" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="35">
+        <v>221</v>
+      </c>
+      <c r="B222" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C222" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="35">
+        <v>222</v>
+      </c>
+      <c r="B223" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="35">
+        <v>223</v>
+      </c>
+      <c r="B224" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="35">
+        <v>224</v>
+      </c>
+      <c r="B225" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C225" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="35">
+        <v>225</v>
+      </c>
+      <c r="B226" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C226" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="35">
+        <v>226</v>
+      </c>
+      <c r="B227" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="35">
+        <v>227</v>
+      </c>
+      <c r="B228" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C228" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="35">
+        <v>228</v>
+      </c>
+      <c r="B229" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="35">
+        <v>229</v>
+      </c>
+      <c r="B230" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="35">
+        <v>230</v>
+      </c>
+      <c r="B231" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="35">
+        <v>231</v>
+      </c>
+      <c r="B232" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C232" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" s="35">
+        <v>232</v>
+      </c>
+      <c r="B233" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C233" s="37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="35">
+        <v>233</v>
+      </c>
+      <c r="B234" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C234" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="35">
+        <v>234</v>
+      </c>
+      <c r="B235" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C235" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="35">
+        <v>235</v>
+      </c>
+      <c r="B236" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C236" s="37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="35">
+        <v>236</v>
+      </c>
+      <c r="B237" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="35">
+        <v>237</v>
+      </c>
+      <c r="B238" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C238" s="37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="35">
+        <v>238</v>
+      </c>
+      <c r="B239" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C239" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="35">
+        <v>239</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C240" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="35">
+        <v>240</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C241" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="35">
+        <v>241</v>
+      </c>
+      <c r="B242" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C242" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="35">
+        <v>242</v>
+      </c>
+      <c r="B243" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C243" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="35">
+        <v>243</v>
+      </c>
+      <c r="B244" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C244" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="35">
+        <v>244</v>
+      </c>
+      <c r="B245" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C245" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="35">
+        <v>245</v>
+      </c>
+      <c r="B246" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="35">
+        <v>246</v>
+      </c>
+      <c r="B247" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C247" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="35">
+        <v>247</v>
+      </c>
+      <c r="B248" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C248" s="37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="35">
+        <v>248</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C249" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="35">
+        <v>249</v>
+      </c>
+      <c r="B250" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="35">
+        <v>250</v>
+      </c>
+      <c r="B251" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="35">
+        <v>251</v>
+      </c>
+      <c r="B252" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C252" s="37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="35">
+        <v>252</v>
+      </c>
+      <c r="B253" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C253" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="35">
+        <v>253</v>
+      </c>
+      <c r="B254" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C254" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="35">
+        <v>254</v>
+      </c>
+      <c r="B255" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C255" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="35">
+        <v>255</v>
+      </c>
+      <c r="B256" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C256" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="35">
+        <v>256</v>
+      </c>
+      <c r="B257" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C257" s="37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="35">
+        <v>257</v>
+      </c>
+      <c r="B258" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C258" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="35">
+        <v>258</v>
+      </c>
+      <c r="B259" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C259" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="35">
+        <v>259</v>
+      </c>
+      <c r="B260" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C260" s="37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="35">
+        <v>260</v>
+      </c>
+      <c r="B261" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C261" s="37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="35">
+        <v>261</v>
+      </c>
+      <c r="B262" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C262" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="35">
+        <v>262</v>
+      </c>
+      <c r="B263" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C263" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="35">
+        <v>263</v>
+      </c>
+      <c r="B264" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C264" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="35">
+        <v>264</v>
+      </c>
+      <c r="B265" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C265" s="37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="35">
+        <v>265</v>
+      </c>
+      <c r="B266" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C266" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="35">
+        <v>266</v>
+      </c>
+      <c r="B267" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C267" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="35">
+        <v>267</v>
+      </c>
+      <c r="B268" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C268" s="37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="35">
+        <v>268</v>
+      </c>
+      <c r="B269" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C269" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="35">
+        <v>269</v>
+      </c>
+      <c r="B270" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C270" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="35">
+        <v>270</v>
+      </c>
+      <c r="B271" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C271" s="37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="35">
+        <v>271</v>
+      </c>
+      <c r="B272" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C272" s="37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="35">
+        <v>272</v>
+      </c>
+      <c r="B273" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C273" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="35">
+        <v>273</v>
+      </c>
+      <c r="B274" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C274" s="37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="35">
+        <v>274</v>
+      </c>
+      <c r="B275" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C275" s="37" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="35">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="35">
+        <v>276</v>
+      </c>
+      <c r="B277" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="35">
+        <v>277</v>
+      </c>
+      <c r="B278" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C278" s="37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="35">
+        <v>278</v>
+      </c>
+      <c r="B279" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C279" s="37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="35">
+        <v>279</v>
+      </c>
+      <c r="B280" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C280" s="37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="35">
+        <v>280</v>
+      </c>
+      <c r="B281" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C281" s="37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="35">
+        <v>281</v>
+      </c>
+      <c r="B282" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C282" s="37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="35">
+        <v>282</v>
+      </c>
+      <c r="B283" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C283" s="37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="35">
+        <v>283</v>
+      </c>
+      <c r="B284" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C284" s="37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="35">
+        <v>284</v>
+      </c>
+      <c r="B285" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C285" s="37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="35">
+        <v>285</v>
+      </c>
+      <c r="B286" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C286" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" s="35">
+        <v>286</v>
+      </c>
+      <c r="B287" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C287" s="37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="35">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C288" s="37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="35">
+        <v>288</v>
+      </c>
+      <c r="B289" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C289" s="37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="35">
+        <v>289</v>
+      </c>
+      <c r="B290" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C290" s="37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="35">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C291" s="37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="35">
+        <v>291</v>
+      </c>
+      <c r="B292" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C292" s="37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="35">
+        <v>292</v>
+      </c>
+      <c r="B293" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C293" s="37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="35">
+        <v>293</v>
+      </c>
+      <c r="B294" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C294" s="37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" s="35">
+        <v>294</v>
+      </c>
+      <c r="B295" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C295" s="37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="35">
+        <v>295</v>
+      </c>
+      <c r="B296" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C296" s="37" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="35">
+        <v>296</v>
+      </c>
+      <c r="B297" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C297" s="37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="35">
+        <v>297</v>
+      </c>
+      <c r="B298" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C298" s="37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="35">
+        <v>298</v>
+      </c>
+      <c r="B299" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C299" s="37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" s="35">
+        <v>299</v>
+      </c>
+      <c r="B300" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C300" s="37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="35">
+        <v>300</v>
+      </c>
+      <c r="B301" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C301" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="35">
+        <v>301</v>
+      </c>
+      <c r="B302" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C302" s="37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="35">
+        <v>302</v>
+      </c>
+      <c r="B303" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C303" s="37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="35">
+        <v>303</v>
+      </c>
+      <c r="B304" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C304" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="35">
+        <v>304</v>
+      </c>
+      <c r="B305" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="35">
+        <v>305</v>
+      </c>
+      <c r="B306" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C306" s="37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="35">
+        <v>306</v>
+      </c>
+      <c r="B307" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C307" s="37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="35">
+        <v>307</v>
+      </c>
+      <c r="B308" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C308" s="37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="35">
+        <v>308</v>
+      </c>
+      <c r="B309" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C309" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="35">
+        <v>309</v>
+      </c>
+      <c r="B310" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C310" s="37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="35">
+        <v>310</v>
+      </c>
+      <c r="B311" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C311" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="35">
+        <v>311</v>
+      </c>
+      <c r="B312" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C312" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="35">
+        <v>312</v>
+      </c>
+      <c r="B313" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C313" s="37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="35">
+        <v>313</v>
+      </c>
+      <c r="B314" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C314" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="35">
+        <v>314</v>
+      </c>
+      <c r="B315" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C315" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="35">
+        <v>315</v>
+      </c>
+      <c r="B316" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C316" s="37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="35">
+        <v>316</v>
+      </c>
+      <c r="B317" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="35">
+        <v>317</v>
+      </c>
+      <c r="B318" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="35">
+        <v>318</v>
+      </c>
+      <c r="B319" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="35">
+        <v>319</v>
+      </c>
+      <c r="B320" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="35">
+        <v>320</v>
+      </c>
+      <c r="B321" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C321" s="37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="35">
+        <v>321</v>
+      </c>
+      <c r="B322" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C322" s="37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="35">
+        <v>322</v>
+      </c>
+      <c r="B323" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C323" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="35">
+        <v>323</v>
+      </c>
+      <c r="B324" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C324" s="37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="35">
+        <v>324</v>
+      </c>
+      <c r="B325" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C325" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="35">
+        <v>325</v>
+      </c>
+      <c r="B326" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C326" s="37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="35">
+        <v>326</v>
+      </c>
+      <c r="B327" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C327" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="35">
+        <v>327</v>
+      </c>
+      <c r="B328" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C328" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="35">
+        <v>328</v>
+      </c>
+      <c r="B329" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C329" s="37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="35">
+        <v>329</v>
+      </c>
+      <c r="B330" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C330" s="37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="35">
+        <v>330</v>
+      </c>
+      <c r="B331" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C331" s="37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="35">
+        <v>331</v>
+      </c>
+      <c r="B332" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C332" s="37" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="35">
+        <v>332</v>
+      </c>
+      <c r="B333" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C333" s="37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="35">
+        <v>333</v>
+      </c>
+      <c r="B334" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C334" s="37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="35">
+        <v>334</v>
+      </c>
+      <c r="B335" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C335" s="37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="35">
+        <v>335</v>
+      </c>
+      <c r="B336" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C336" s="37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="35">
+        <v>336</v>
+      </c>
+      <c r="B337" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C337" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="35">
+        <v>337</v>
+      </c>
+      <c r="B338" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C338" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="35">
+        <v>338</v>
+      </c>
+      <c r="B339" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C339" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="35">
+        <v>339</v>
+      </c>
+      <c r="B340" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C340" s="37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="35">
+        <v>340</v>
+      </c>
+      <c r="B341" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C341" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A342" s="35">
+        <v>341</v>
+      </c>
+      <c r="B342" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C342" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A343" s="35">
+        <v>342</v>
+      </c>
+      <c r="B343" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C343" s="37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344" s="35">
+        <v>343</v>
+      </c>
+      <c r="B344" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C344" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345" s="35">
+        <v>344</v>
+      </c>
+      <c r="B345" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C345" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346" s="35">
+        <v>345</v>
+      </c>
+      <c r="B346" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C346" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347" s="35">
+        <v>346</v>
+      </c>
+      <c r="B347" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C347" s="37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348" s="35">
+        <v>347</v>
+      </c>
+      <c r="B348" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C348" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349" s="35">
+        <v>348</v>
+      </c>
+      <c r="B349" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" s="37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350" s="35">
+        <v>349</v>
+      </c>
+      <c r="B350" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C350" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351" s="35">
+        <v>350</v>
+      </c>
+      <c r="B351" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C351" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" s="35">
+        <v>351</v>
+      </c>
+      <c r="B352" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C352" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" s="35">
+        <v>352</v>
+      </c>
+      <c r="B353" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C353" s="37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" s="35">
+        <v>353</v>
+      </c>
+      <c r="B354" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C354" s="37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A355" s="35">
+        <v>354</v>
+      </c>
+      <c r="B355" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C355" s="37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356" s="35">
+        <v>355</v>
+      </c>
+      <c r="B356" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C356" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A357" s="35">
+        <v>356</v>
+      </c>
+      <c r="B357" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C357" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358" s="35">
+        <v>357</v>
+      </c>
+      <c r="B358" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C358" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359" s="35">
+        <v>358</v>
+      </c>
+      <c r="B359" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C359" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360" s="35">
+        <v>359</v>
+      </c>
+      <c r="B360" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C360" s="37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A361" s="35">
+        <v>360</v>
+      </c>
+      <c r="B361" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C361" s="37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362" s="35">
+        <v>361</v>
+      </c>
+      <c r="B362" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C362" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A363" s="35">
+        <v>362</v>
+      </c>
+      <c r="B363" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C363" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364" s="35">
+        <v>363</v>
+      </c>
+      <c r="B364" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C364" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A365" s="35">
+        <v>364</v>
+      </c>
+      <c r="B365" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C365" s="37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366" s="35">
+        <v>365</v>
+      </c>
+      <c r="B366" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C366" s="37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367" s="35">
+        <v>366</v>
+      </c>
+      <c r="B367" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C367" s="37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368" s="35">
+        <v>367</v>
+      </c>
+      <c r="B368" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C368" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A369" s="35">
+        <v>368</v>
+      </c>
+      <c r="B369" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C369" s="37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A370" s="35">
+        <v>369</v>
+      </c>
+      <c r="B370" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C370" s="37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A371" s="35">
+        <v>370</v>
+      </c>
+      <c r="B371" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C371" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A372" s="35">
+        <v>371</v>
+      </c>
+      <c r="B372" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C372" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A373" s="35">
+        <v>372</v>
+      </c>
+      <c r="B373" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C373" s="37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A374" s="35">
+        <v>373</v>
+      </c>
+      <c r="B374" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C374" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A375" s="35">
+        <v>374</v>
+      </c>
+      <c r="B375" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C375" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A376" s="35">
+        <v>375</v>
+      </c>
+      <c r="B376" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C376" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A377" s="35">
+        <v>376</v>
+      </c>
+      <c r="B377" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C377" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A378" s="35">
+        <v>377</v>
+      </c>
+      <c r="B378" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C378" s="37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A379" s="35">
+        <v>378</v>
+      </c>
+      <c r="B379" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C379" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A380" s="35">
+        <v>379</v>
+      </c>
+      <c r="B380" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C380" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="D380" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A381" s="35">
+        <v>380</v>
+      </c>
+      <c r="B381" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C381" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="D381" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q381" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A382" s="35">
+        <v>381</v>
+      </c>
+      <c r="B382" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C382" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="D382" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A383" s="35">
+        <v>382</v>
+      </c>
+      <c r="B383" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C383" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="D383" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A384" s="35">
+        <v>383</v>
+      </c>
+      <c r="B384" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C384" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D384" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A385" s="35">
+        <v>384</v>
+      </c>
+      <c r="B385" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C385" s="37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A386" s="35">
+        <v>385</v>
+      </c>
+      <c r="B386" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C386" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D386" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A387" s="35">
+        <v>386</v>
+      </c>
+      <c r="B387" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C387" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D387" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A388" s="35">
+        <v>387</v>
+      </c>
+      <c r="B388" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C388" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="D388" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A389" s="35">
+        <v>388</v>
+      </c>
+      <c r="B389" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C389" s="37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A390" s="35">
+        <v>389</v>
+      </c>
+      <c r="B390" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C390" s="37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A391" s="35">
+        <v>390</v>
+      </c>
+      <c r="B391" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C391" s="37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A392" s="35">
+        <v>391</v>
+      </c>
+      <c r="B392" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C392" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D392" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A393" s="35">
+        <v>392</v>
+      </c>
+      <c r="B393" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C393" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="D393" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A394" s="35">
+        <v>393</v>
+      </c>
+      <c r="B394" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C394" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D394" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A395" s="35">
+        <v>394</v>
+      </c>
+      <c r="B395" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C395" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D395" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A396" s="35">
+        <v>395</v>
+      </c>
+      <c r="B396" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C396" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="D396" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A397" s="35">
+        <v>396</v>
+      </c>
+      <c r="B397" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C397" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D397" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A398" s="35">
+        <v>397</v>
+      </c>
+      <c r="B398" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C398" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="D398" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A399" s="35">
+        <v>398</v>
+      </c>
+      <c r="B399" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C399" s="37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A400" s="35">
+        <v>399</v>
+      </c>
+      <c r="B400" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C400" s="37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401" s="35">
+        <v>400</v>
+      </c>
+      <c r="B401" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C401" s="37" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402" s="35">
+        <v>401</v>
+      </c>
+      <c r="B402" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C402" s="37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403" s="35">
+        <v>402</v>
+      </c>
+      <c r="B403" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C403" s="37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404" s="35">
+        <v>403</v>
+      </c>
+      <c r="B404" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C404" s="37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" s="35">
+        <v>404</v>
+      </c>
+      <c r="B405" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C405" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406" s="35">
+        <v>405</v>
+      </c>
+      <c r="B406" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C406" s="37" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" s="35">
+        <v>406</v>
+      </c>
+      <c r="B407" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C407" s="37" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408" s="35">
+        <v>407</v>
+      </c>
+      <c r="B408" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C408" s="37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409" s="35">
+        <v>408</v>
+      </c>
+      <c r="B409" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C409" s="37" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" s="35">
+        <v>409</v>
+      </c>
+      <c r="B410" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C410" s="37" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" s="35">
+        <v>410</v>
+      </c>
+      <c r="B411" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C411" s="37" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412" s="35">
+        <v>411</v>
+      </c>
+      <c r="B412" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C412" s="37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413" s="35">
+        <v>412</v>
+      </c>
+      <c r="B413" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C413" s="37" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414" s="35">
+        <v>413</v>
+      </c>
+      <c r="B414" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C414" s="37" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415" s="35">
+        <v>414</v>
+      </c>
+      <c r="B415" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C415" s="37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416" s="35">
+        <v>415</v>
+      </c>
+      <c r="B416" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C416" s="37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" s="35">
+        <v>416</v>
+      </c>
+      <c r="B417" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C417" s="37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" s="35">
+        <v>417</v>
+      </c>
+      <c r="B418" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C418" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" s="35">
+        <v>418</v>
+      </c>
+      <c r="B419" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C419" s="37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420" s="35">
+        <v>419</v>
+      </c>
+      <c r="B420" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C420" s="37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421" s="35">
+        <v>420</v>
+      </c>
+      <c r="B421" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C421" s="37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422" s="35">
+        <v>421</v>
+      </c>
+      <c r="B422" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C422" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" s="35">
+        <v>422</v>
+      </c>
+      <c r="B423" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C423" s="37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" s="35">
+        <v>423</v>
+      </c>
+      <c r="B424" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C424" s="37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425" s="35">
+        <v>424</v>
+      </c>
+      <c r="B425" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C425" s="37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426" s="35">
+        <v>425</v>
+      </c>
+      <c r="B426" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C426" s="37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427" s="35">
+        <v>426</v>
+      </c>
+      <c r="B427" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C427" s="37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428" s="35">
+        <v>427</v>
+      </c>
+      <c r="B428" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C428" s="37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429" s="35">
+        <v>428</v>
+      </c>
+      <c r="B429" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C429" s="37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430" s="35">
+        <v>429</v>
+      </c>
+      <c r="B430" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C430" s="37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431" s="35">
+        <v>430</v>
+      </c>
+      <c r="B431" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C431" s="37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432" s="35">
+        <v>431</v>
+      </c>
+      <c r="B432" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C432" s="37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433" s="35">
+        <v>432</v>
+      </c>
+      <c r="B433" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C433" s="37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434" s="35">
+        <v>433</v>
+      </c>
+      <c r="B434" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C434" s="37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435" s="35">
+        <v>434</v>
+      </c>
+      <c r="B435" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C435" s="37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436" s="35">
+        <v>435</v>
+      </c>
+      <c r="B436" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C436" s="37" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437" s="35">
+        <v>436</v>
+      </c>
+      <c r="B437" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C437" s="37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438" s="35">
+        <v>437</v>
+      </c>
+      <c r="B438" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C438" s="37" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A439" s="35">
+        <v>438</v>
+      </c>
+      <c r="B439" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C439" s="37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440" s="35">
+        <v>439</v>
+      </c>
+      <c r="B440" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C440" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441" s="35">
+        <v>440</v>
+      </c>
+      <c r="B441" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C441" s="37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442" s="35">
+        <v>441</v>
+      </c>
+      <c r="B442" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C442" s="37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443" s="35">
+        <v>442</v>
+      </c>
+      <c r="B443" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C443" s="37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444" s="35">
+        <v>443</v>
+      </c>
+      <c r="B444" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C444" s="37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445" s="35">
+        <v>444</v>
+      </c>
+      <c r="B445" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C445" s="37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A446" s="35">
+        <v>445</v>
+      </c>
+      <c r="B446" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C446" s="37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A447" s="35">
+        <v>446</v>
+      </c>
+      <c r="B447" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C447" s="37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A448" s="35">
+        <v>447</v>
+      </c>
+      <c r="B448" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C448" s="37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A449" s="35">
+        <v>448</v>
+      </c>
+      <c r="B449" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C449" s="37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7EF156EE-2E70-5445-A79F-D9952F834C88}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{FFD670F5-13A1-4E41-82DB-BDC25628E32A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{909F612D-8C47-3847-A493-EA2231E80203}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A36FFC6D-0B1F-4C4C-AD83-A5DE22391915}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{07942788-87B5-1541-BB7C-E8CC0485FA8B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{8A8AF6AC-9E6F-834E-804A-0A14DF83080E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{012E9E26-CDA3-994B-A956-68E2D08BBC12}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{7B8C3C4E-C418-BB49-ABB4-734A1AB9F456}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{CCA7AC12-A165-7B4D-BDF1-131A6272F56A}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{BCDC12AF-6ABE-1649-A4C2-0603A7BD45CB}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{7AC07DF3-2D09-8D48-AB74-4EE73E40A2A4}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{628E56E9-7A06-BC42-A009-BD05727F6966}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{3F5B7BBA-B580-1740-9F97-658AAFA65E2A}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{D5CC61C9-7192-EC45-9787-4CAA5FAE9263}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{032B5989-1ED0-D44A-A3E7-EFC9EBE0302E}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{228F134D-256C-0949-B3B0-9E1424715387}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{DD40A7FF-52B5-E24A-8D4E-191407800234}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{4A401ADE-CBD4-9647-8AF9-3DA9A6240331}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{16273E24-BB27-AA42-B1F7-40D69A54BF14}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{EED43CA1-D90A-864C-80F1-A3D281578D72}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{15BD6AC7-005C-C645-8267-7DCBFD2BB8DA}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{54BF2530-0CE0-9146-ADF4-993458981489}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{CD8AA978-47C6-F248-BA3B-3D2B6F8F8F02}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{1A111853-9D62-0248-B7A6-A6681FD5E781}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{2CBEE030-B403-0945-95E7-A1C61ABD5ADB}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{AC5D942E-4EA2-9A46-A5D5-204ABDC31655}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{6A2CB978-6E4C-DD43-BA0E-07E4071D59DD}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{03DFDF2E-CC06-7F4C-B62F-6B759B216B3A}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{52832E13-CDEF-0B47-8E4A-1DD7367466F0}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{2ED0A669-8441-6740-B789-8C56DCEF8E87}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{E5303CDE-3DED-A54D-BE46-C4EB6133D990}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{54115D5C-9FAE-AF4A-9454-226BD2E96500}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{2997C66E-240C-B747-A21E-C6FDA33D58B8}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{8D67BA6C-FA21-4A49-9A40-9774BA347834}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{5F5C458D-0B32-6342-8BC6-04C9FBDA8439}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{78AC1718-9135-9D40-B660-F880B2BEE07A}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{7A1A77FB-6F63-0741-9552-2A637EC126A4}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{DC899A73-CE1C-B44C-8D22-D49D88800E37}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{8A7A8988-3517-A048-AA9F-89B861D9DC70}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{3534BA57-E027-1E41-9B3A-B871CAED6F5B}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{60B71FC6-256E-8B4A-B4C1-413007E82C2B}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{88DF6FCD-4BE3-A54C-A773-7C95918C7A9D}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{0E465CC7-7F8B-054D-BEF8-9717EA31C8A3}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{65094141-16EA-2147-B291-AC974F4733C9}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{28929FBD-707D-4C4A-BC71-3561AF48E043}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{C2738E70-92B2-5A4C-901E-88FBC3C20EEC}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{FFD8482E-749D-3842-99F4-EE1B521275C1}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{BC98B107-3818-C241-ABFF-FC94A47B9287}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{2B610606-F33F-2049-88D5-3D38D2A04A7B}"/>
+    <hyperlink ref="C52" r:id="rId50" xr:uid="{B1D53888-4E5C-514A-A15F-7AE732076004}"/>
+    <hyperlink ref="C53" r:id="rId51" xr:uid="{AAC9C4D2-4629-7148-AD29-91EB901A59F6}"/>
+    <hyperlink ref="C54" r:id="rId52" xr:uid="{7174EBF1-922A-FC45-9630-8156CACBCABF}"/>
+    <hyperlink ref="C55" r:id="rId53" xr:uid="{7EAF062D-9540-914C-B2CB-5F2463F504A3}"/>
+    <hyperlink ref="C56" r:id="rId54" xr:uid="{9378B0F0-DC25-BF40-9B8D-BFCB7A94F946}"/>
+    <hyperlink ref="C57" r:id="rId55" xr:uid="{32FBDE9E-6BE0-0046-B052-EB109499C498}"/>
+    <hyperlink ref="C58" r:id="rId56" xr:uid="{928ED7C1-932D-C540-A348-31CA30467064}"/>
+    <hyperlink ref="C59" r:id="rId57" xr:uid="{1B444CCB-B903-1A4B-A68B-A051E804B8EE}"/>
+    <hyperlink ref="C60" r:id="rId58" xr:uid="{1F68DEA5-C28A-6C43-91D4-A2FF7C3510FD}"/>
+    <hyperlink ref="C61" r:id="rId59" xr:uid="{BD9E9F09-BDBC-CC49-BA9F-8309CB063B3B}"/>
+    <hyperlink ref="C62" r:id="rId60" xr:uid="{78F511CE-024E-A041-94FD-AA3F6F126BCF}"/>
+    <hyperlink ref="C63" r:id="rId61" xr:uid="{D41E57D5-931F-6640-9DFA-F0AFB35783CB}"/>
+    <hyperlink ref="C64" r:id="rId62" xr:uid="{395E24D3-6B85-4E46-AE3F-F4F8B5E6A551}"/>
+    <hyperlink ref="C65" r:id="rId63" xr:uid="{6D6F6406-9997-7548-B659-E9B70F94A3A2}"/>
+    <hyperlink ref="C66" r:id="rId64" xr:uid="{8FC416A7-F7CF-D141-8C98-6DCC82BF5CC4}"/>
+    <hyperlink ref="C67" r:id="rId65" xr:uid="{DD09B0EE-3DB8-AC44-ADB2-DD2E23B00C17}"/>
+    <hyperlink ref="C68" r:id="rId66" xr:uid="{75EA20C7-DACE-8E4F-A7A3-E8146B83C76B}"/>
+    <hyperlink ref="C69" r:id="rId67" xr:uid="{B3B8FEBA-815C-3744-B572-FA4832D244B1}"/>
+    <hyperlink ref="C70" r:id="rId68" xr:uid="{E9F3CE0F-FF1B-6F4A-81B5-45BF4E626DD9}"/>
+    <hyperlink ref="C71" r:id="rId69" xr:uid="{39FEDF9E-E478-4844-8C2B-72E9FDD0BB6F}"/>
+    <hyperlink ref="C72" r:id="rId70" xr:uid="{F5EF291C-5DAD-D442-AB43-AC3814D6082B}"/>
+    <hyperlink ref="C73" r:id="rId71" xr:uid="{13F6A65B-D696-D24E-B5F0-F953C90C6666}"/>
+    <hyperlink ref="C74" r:id="rId72" xr:uid="{711DE6E2-EAC4-1947-A607-8825D5581F50}"/>
+    <hyperlink ref="C75" r:id="rId73" xr:uid="{834D6338-9646-094B-9AC7-589FE88631CC}"/>
+    <hyperlink ref="C76" r:id="rId74" xr:uid="{7F543F3E-A09A-4249-94B8-ABF1655669C6}"/>
+    <hyperlink ref="C77" r:id="rId75" xr:uid="{89CFF208-E676-9A42-AEAC-7D4010010AC2}"/>
+    <hyperlink ref="C78" r:id="rId76" xr:uid="{F9B7880A-0D88-E14B-89C1-66C19A7BFE21}"/>
+    <hyperlink ref="C79" r:id="rId77" xr:uid="{1D0D7357-CEEF-264A-92CD-280084E72135}"/>
+    <hyperlink ref="C80" r:id="rId78" xr:uid="{7D64081B-1F88-7F4C-83E3-2A8F9E38A55F}"/>
+    <hyperlink ref="C81" r:id="rId79" xr:uid="{9CA8B34C-1650-804D-840C-AA03AB421E8D}"/>
+    <hyperlink ref="C82" r:id="rId80" xr:uid="{A0CB0C62-A9E6-AA43-B687-D52AF5457451}"/>
+    <hyperlink ref="C83" r:id="rId81" xr:uid="{9A991BEA-6E71-7C4F-AF59-B211BC330476}"/>
+    <hyperlink ref="C84" r:id="rId82" xr:uid="{53FF1E0D-AE3E-5744-B30D-CAC08732FB3C}"/>
+    <hyperlink ref="C85" r:id="rId83" xr:uid="{CBF733BD-C145-054A-93D3-C79105C3F466}"/>
+    <hyperlink ref="C86" r:id="rId84" xr:uid="{B99016DA-C092-DF40-ADC8-913E4F723ADB}"/>
+    <hyperlink ref="C87" r:id="rId85" xr:uid="{C15A396A-BF79-B244-8B7F-3308EDA2A29B}"/>
+    <hyperlink ref="C88" r:id="rId86" xr:uid="{C5FC7E6F-CDF3-3C4D-B5A0-4BF36728E363}"/>
+    <hyperlink ref="C89" r:id="rId87" xr:uid="{012EF276-40F9-FF46-9D49-382B8D6F575C}"/>
+    <hyperlink ref="C90" r:id="rId88" xr:uid="{ECF2DEF2-CA5F-FD47-B759-BF02726D5A16}"/>
+    <hyperlink ref="C91" r:id="rId89" xr:uid="{6B2C69D2-9711-5942-98B2-8FBD82073A2C}"/>
+    <hyperlink ref="C92" r:id="rId90" xr:uid="{E253F5F2-7E53-0B4E-B1B2-1A3C1458A27B}"/>
+    <hyperlink ref="C93" r:id="rId91" xr:uid="{6D5C25FF-C907-B943-84D4-32FE38581F32}"/>
+    <hyperlink ref="C94" r:id="rId92" xr:uid="{F0AF1A31-F82D-1642-B338-0EF93887797E}"/>
+    <hyperlink ref="C96" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{143ADD7D-2A46-7F4C-99AE-9F70B233C2B4}"/>
+    <hyperlink ref="C97" r:id="rId94" xr:uid="{ABDC529E-408A-184D-A8E4-19314DB1ABD0}"/>
+    <hyperlink ref="C98" r:id="rId95" xr:uid="{7387A518-0B24-5D4B-9967-43C3D6F93C0F}"/>
+    <hyperlink ref="C99" r:id="rId96" xr:uid="{C1DF523D-CEE5-0846-8611-01464DCB97EE}"/>
+    <hyperlink ref="C100" r:id="rId97" xr:uid="{5B9082A3-84F2-EB47-B685-54FBE90092D6}"/>
+    <hyperlink ref="C101" r:id="rId98" xr:uid="{422133DE-72E8-AA4F-ABBC-13E7E90D5AFF}"/>
+    <hyperlink ref="C103" r:id="rId99" xr:uid="{42C0827D-44DE-8846-810F-AB884814FF06}"/>
+    <hyperlink ref="C104" r:id="rId100" xr:uid="{006946FB-2B7D-AF43-9637-6766DD4155FD}"/>
+    <hyperlink ref="C105" r:id="rId101" xr:uid="{4E6B9897-7CC6-EB43-9BAD-8EA491B18DE1}"/>
+    <hyperlink ref="C106" r:id="rId102" xr:uid="{C60F974E-DEF9-7F4F-9CF4-D8815A14D758}"/>
+    <hyperlink ref="C107" r:id="rId103" xr:uid="{EE277847-A457-DB4B-95DA-008423E593E4}"/>
+    <hyperlink ref="C108" r:id="rId104" xr:uid="{5580556D-55E3-6141-A898-E735D2E66373}"/>
+    <hyperlink ref="C109" r:id="rId105" xr:uid="{EFB4370C-1BF0-6D49-B4B9-3401879C200F}"/>
+    <hyperlink ref="C110" r:id="rId106" xr:uid="{3A4A31B7-9479-7349-8116-DF4FFEA6DFE1}"/>
+    <hyperlink ref="C111" r:id="rId107" xr:uid="{8CBDA47C-07B7-E842-A1AA-7E276621DD0A}"/>
+    <hyperlink ref="C112" r:id="rId108" xr:uid="{34930C8F-6903-9A43-A148-6AA3A8DA2FCD}"/>
+    <hyperlink ref="C113" r:id="rId109" xr:uid="{FCCA986C-D29C-5541-8967-1BBD3E8D78DB}"/>
+    <hyperlink ref="C114" r:id="rId110" xr:uid="{97E7A7E4-D5B7-F440-8AEF-01B25A4F584D}"/>
+    <hyperlink ref="C115" r:id="rId111" xr:uid="{D603B83F-FDD3-B748-966A-501DAAE1F4FB}"/>
+    <hyperlink ref="C116" r:id="rId112" xr:uid="{B2B71FF9-E90F-4D4F-B8A6-4E6A5E0131A5}"/>
+    <hyperlink ref="C117" r:id="rId113" xr:uid="{B9A35432-20A8-D845-90D4-82AD53C7C41D}"/>
+    <hyperlink ref="C118" r:id="rId114" xr:uid="{69F0B9A4-BEDB-9A4F-8E42-5C1B26B521A2}"/>
+    <hyperlink ref="C119" r:id="rId115" xr:uid="{1233041D-A0E7-D54C-AFC9-62267F7EED4D}"/>
+    <hyperlink ref="C120" r:id="rId116" xr:uid="{A0150398-4D0B-094C-899B-DC27879BC76A}"/>
+    <hyperlink ref="C121" r:id="rId117" xr:uid="{82ECE67E-FA5A-6F4F-981B-2FE1F3344385}"/>
+    <hyperlink ref="C122" r:id="rId118" xr:uid="{07B20D73-65B7-5746-A246-05CDF4A77086}"/>
+    <hyperlink ref="C123" r:id="rId119" xr:uid="{95C477D3-6C24-6541-A370-D8DB5596C78E}"/>
+    <hyperlink ref="C124" r:id="rId120" xr:uid="{778FDA5F-D9C2-EE44-A1AC-CFB0EC576816}"/>
+    <hyperlink ref="C125" r:id="rId121" xr:uid="{65FB73FE-7899-064A-81E2-7ACF84A36F44}"/>
+    <hyperlink ref="C126" r:id="rId122" xr:uid="{6D9E8E19-6952-E54D-B9C8-A5581F9E890B}"/>
+    <hyperlink ref="C95" r:id="rId123" xr:uid="{2063451D-C293-954A-A999-F36C32F82A1C}"/>
+    <hyperlink ref="C102" r:id="rId124" xr:uid="{256A1397-8DD2-0743-A389-6FD3EEB179E7}"/>
+    <hyperlink ref="C127" r:id="rId125" xr:uid="{FD448EC8-7A83-5345-B2BF-A63774F37612}"/>
+    <hyperlink ref="C128" r:id="rId126" xr:uid="{0B436A10-66F3-BE4C-9E52-5EA1D7190C53}"/>
+    <hyperlink ref="C129" r:id="rId127" xr:uid="{F715E886-8C9C-E642-9B79-B8D39AEFDBDB}"/>
+    <hyperlink ref="C130" r:id="rId128" xr:uid="{080E1286-45EF-3D4D-ACDC-B9A7B3D925B2}"/>
+    <hyperlink ref="C131" r:id="rId129" xr:uid="{0BBEB42B-68B9-2346-9815-99DDFD980E18}"/>
+    <hyperlink ref="C132" r:id="rId130" xr:uid="{E79B110A-9176-5D44-97D6-D1DA0ADD4A63}"/>
+    <hyperlink ref="C133" r:id="rId131" xr:uid="{3CEA073F-EC79-4344-94FB-D194C126C7D8}"/>
+    <hyperlink ref="C134" r:id="rId132" xr:uid="{40D01134-75FC-3D46-AF61-E69DF4D11C98}"/>
+    <hyperlink ref="C135" r:id="rId133" xr:uid="{8E294811-BC4A-F944-8FDA-F34E0630700E}"/>
+    <hyperlink ref="C136" r:id="rId134" xr:uid="{F38E3ADE-D897-314F-8218-565B55E9D3D9}"/>
+    <hyperlink ref="C137" r:id="rId135" xr:uid="{E39A8D47-7A8D-B746-8E09-D49E6E4FBEAB}"/>
+    <hyperlink ref="C138" r:id="rId136" xr:uid="{526BD094-80FF-264E-B40E-3988075F1662}"/>
+    <hyperlink ref="C139" r:id="rId137" xr:uid="{04645733-5867-9E47-9D8E-34B7C2BB7805}"/>
+    <hyperlink ref="C140" r:id="rId138" xr:uid="{4477BDC9-3EC8-EF46-ADD2-3F9EDC017E03}"/>
+    <hyperlink ref="C141" r:id="rId139" xr:uid="{5ACBB564-7F2D-1144-90A5-570F560A5EE7}"/>
+    <hyperlink ref="C142" r:id="rId140" xr:uid="{612FC05A-43C8-9643-90C1-C338B2FD06FE}"/>
+    <hyperlink ref="C143" r:id="rId141" xr:uid="{13286CE4-A9F9-A746-96A7-47F04656DC43}"/>
+    <hyperlink ref="C144" r:id="rId142" xr:uid="{7C9F0710-B0A6-9B4E-8C1C-7D8D24EB634B}"/>
+    <hyperlink ref="C145" r:id="rId143" xr:uid="{99D4D1D4-5BEE-0B48-B0A4-8198114223EF}"/>
+    <hyperlink ref="C146" r:id="rId144" xr:uid="{252F484C-D807-8241-B35B-8DAB9B676BD2}"/>
+    <hyperlink ref="C147" r:id="rId145" xr:uid="{EF33AB9E-3DFA-9A4E-BA59-B01683BDAE16}"/>
+    <hyperlink ref="C148" r:id="rId146" xr:uid="{E6506B3D-F68A-604B-AE50-0B653B11F5FF}"/>
+    <hyperlink ref="C149" r:id="rId147" xr:uid="{4B96553A-F4E1-EA44-902A-7126BEA90568}"/>
+    <hyperlink ref="C150" r:id="rId148" xr:uid="{E66695CD-FAE2-8B4B-8317-38DFC9D8398C}"/>
+    <hyperlink ref="C151" r:id="rId149" xr:uid="{EF0B507C-5B15-4D4E-8A88-ED51DA140F97}"/>
+    <hyperlink ref="C154" r:id="rId150" xr:uid="{50B5D9DE-4CE7-9640-9257-AF329934614E}"/>
+    <hyperlink ref="C155" r:id="rId151" xr:uid="{52712AB3-6193-FC46-B784-F06FD9D2D3A8}"/>
+    <hyperlink ref="C156" r:id="rId152" xr:uid="{9318F871-9048-C748-BEDB-A0DE87D07737}"/>
+    <hyperlink ref="C157" r:id="rId153" xr:uid="{A81DD0A0-1BA4-B44C-BC9F-6C1FFDA60C7A}"/>
+    <hyperlink ref="C158" r:id="rId154" xr:uid="{3503E815-2927-8342-9678-CBBBDA082F03}"/>
+    <hyperlink ref="C159" r:id="rId155" xr:uid="{285D58A8-F6AB-1C41-945B-0B51C8A8E099}"/>
+    <hyperlink ref="C160" r:id="rId156" xr:uid="{3FEA1722-5389-3444-A89E-1ED817984711}"/>
+    <hyperlink ref="C161" r:id="rId157" xr:uid="{0645F5CC-C909-3643-9C6E-CB8440F4D337}"/>
+    <hyperlink ref="C162" r:id="rId158" xr:uid="{798D14CD-31DE-B040-A620-024CF4D4B990}"/>
+    <hyperlink ref="C163" r:id="rId159" xr:uid="{BA85D502-14B3-B047-8911-3688328AF95C}"/>
+    <hyperlink ref="C164" r:id="rId160" xr:uid="{52133231-699E-694D-8EA4-9533FEF84D3C}"/>
+    <hyperlink ref="C165" r:id="rId161" xr:uid="{15A42614-84CE-2B4F-8C16-4483003575F7}"/>
+    <hyperlink ref="C166" r:id="rId162" xr:uid="{5B7BDBAC-71AE-E74F-816A-790443183C6E}"/>
+    <hyperlink ref="C167" r:id="rId163" xr:uid="{24A44804-0443-8549-8CA2-42E796A38D2F}"/>
+    <hyperlink ref="C168" r:id="rId164" xr:uid="{B4696817-F530-094B-874B-B3BC601E15D1}"/>
+    <hyperlink ref="C169" r:id="rId165" xr:uid="{7B9A2E4A-CCE1-7F4C-B11E-08619030CAE4}"/>
+    <hyperlink ref="C170" r:id="rId166" xr:uid="{C97276F7-7014-8F4D-8538-0717954E63EF}"/>
+    <hyperlink ref="C171" r:id="rId167" xr:uid="{D1800924-E7C9-A849-82FF-65A6E092399F}"/>
+    <hyperlink ref="C172" r:id="rId168" xr:uid="{8D4EA9B3-EA64-6C47-B256-AF3F2159D54B}"/>
+    <hyperlink ref="C173" r:id="rId169" xr:uid="{F99E5321-A7F5-1E40-A992-38F40B65FAEA}"/>
+    <hyperlink ref="C174" r:id="rId170" xr:uid="{3E6AA213-4428-9445-934B-C423395764A1}"/>
+    <hyperlink ref="C175" r:id="rId171" xr:uid="{7F1F9B23-F9A3-A645-98A3-E99000C40B68}"/>
+    <hyperlink ref="C176" r:id="rId172" xr:uid="{7488AD20-0E14-B84B-84ED-36E9469181CF}"/>
+    <hyperlink ref="C177" r:id="rId173" xr:uid="{7C6BCFBE-2C6F-E947-9494-4AE3A72336A9}"/>
+    <hyperlink ref="C178" r:id="rId174" xr:uid="{DCB879AF-A455-4741-A350-7249854E7ED1}"/>
+    <hyperlink ref="C179" r:id="rId175" xr:uid="{F495128D-4FDA-3349-BCD1-3550EBB38A30}"/>
+    <hyperlink ref="C180" r:id="rId176" xr:uid="{608B3E82-1112-C04C-88E1-A97C1ADD6E93}"/>
+    <hyperlink ref="C181" r:id="rId177" xr:uid="{BC7E9FE7-C123-7F4F-9DE1-3D17DB3DC7CE}"/>
+    <hyperlink ref="C182" r:id="rId178" xr:uid="{AE89DFA7-9515-7040-8FDE-1E84F4FA31A1}"/>
+    <hyperlink ref="C183" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{CE439C0C-3DB4-C449-98BE-FE06F8B540FD}"/>
+    <hyperlink ref="C184" r:id="rId180" xr:uid="{A5279B56-048A-6A41-AF8F-41E5A5DE45DB}"/>
+    <hyperlink ref="C185" r:id="rId181" xr:uid="{BAB4F07C-D8D2-1145-B5E9-D34A2C6C4A24}"/>
+    <hyperlink ref="C186" r:id="rId182" xr:uid="{84F6893E-F1BB-FB47-AE76-5EF55C96C190}"/>
+    <hyperlink ref="C187" r:id="rId183" xr:uid="{46ED3A02-C432-B040-8DC1-37216EF51321}"/>
+    <hyperlink ref="C188" r:id="rId184" xr:uid="{48F82191-7941-AA4A-8CB8-C9237BCB19B6}"/>
+    <hyperlink ref="C189" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{AE9CE9C0-6019-CA4A-AF7B-E17ABA19F714}"/>
+    <hyperlink ref="C190" r:id="rId186" xr:uid="{88749D41-777B-7044-A5D3-1AE5BB944EB3}"/>
+    <hyperlink ref="C191" r:id="rId187" xr:uid="{BAA4809C-4108-374C-9C49-AA69DCB4894C}"/>
+    <hyperlink ref="C192" r:id="rId188" xr:uid="{CC5B6C3C-DA84-8B4F-8BB3-50D3C5B018BF}"/>
+    <hyperlink ref="C193" r:id="rId189" xr:uid="{46866CD9-D282-804C-8653-E1D79739A961}"/>
+    <hyperlink ref="C194" r:id="rId190" xr:uid="{4B01D5B4-579B-494A-B7A4-DB838FB3FE35}"/>
+    <hyperlink ref="C195" r:id="rId191" xr:uid="{E92481D4-5E71-564B-914E-EB772109CA02}"/>
+    <hyperlink ref="C196" r:id="rId192" xr:uid="{39EE68C1-629F-D742-89D7-60826AC93AAA}"/>
+    <hyperlink ref="C197" r:id="rId193" xr:uid="{7CF4D326-C179-2249-877D-8C3B4564AAF0}"/>
+    <hyperlink ref="C198" r:id="rId194" xr:uid="{22B7C777-A485-A341-A68A-CCF16F161D7D}"/>
+    <hyperlink ref="C199" r:id="rId195" xr:uid="{D6DA5968-8D3E-5C47-87B0-0EB7F7AEE5FA}"/>
+    <hyperlink ref="C200" r:id="rId196" xr:uid="{9BA45A67-A253-A546-BD75-E1C08C8A0336}"/>
+    <hyperlink ref="C201" r:id="rId197" xr:uid="{2366F394-019D-EF4E-8139-9AE9CD49BAE0}"/>
+    <hyperlink ref="C202" r:id="rId198" xr:uid="{EFC27527-233F-C44A-AC46-ED0193E728F6}"/>
+    <hyperlink ref="C203" r:id="rId199" xr:uid="{1277CA5A-B670-1843-AF06-9CA9B1BC7B56}"/>
+    <hyperlink ref="C204" r:id="rId200" xr:uid="{B8C09E25-1E28-BB41-94A5-6065D2A12755}"/>
+    <hyperlink ref="C205" r:id="rId201" xr:uid="{34743843-A782-AA4D-B682-655718EDBB60}"/>
+    <hyperlink ref="C206" r:id="rId202" xr:uid="{795DBED7-8435-2340-8318-50FC85179FF9}"/>
+    <hyperlink ref="C207" r:id="rId203" xr:uid="{4D15F446-2591-3240-A310-6E9C883CA293}"/>
+    <hyperlink ref="C208" r:id="rId204" xr:uid="{4B1D5D23-FA2B-474C-A9EA-7002C5EF7918}"/>
+    <hyperlink ref="C209" r:id="rId205" xr:uid="{80D1707E-B809-BF41-BA17-AD57962C88D1}"/>
+    <hyperlink ref="C210" r:id="rId206" xr:uid="{8ECC63B7-73FA-BE4F-88B9-DF5BCBC58E6C}"/>
+    <hyperlink ref="C211" r:id="rId207" xr:uid="{B915E433-86A2-0244-A888-3DE3FC7E7187}"/>
+    <hyperlink ref="C212" r:id="rId208" xr:uid="{D9FAEB1B-3CE7-C948-8DEC-0BD7501654E2}"/>
+    <hyperlink ref="C213" r:id="rId209" xr:uid="{C8C72B89-FA7C-3246-8A4E-D3D125B85ABC}"/>
+    <hyperlink ref="C214" r:id="rId210" xr:uid="{5C3F0DCD-A910-A84C-B321-7CFEB29C568B}"/>
+    <hyperlink ref="C215" r:id="rId211" xr:uid="{638E3F1F-2FB0-8343-8554-1F9FCBDB6F13}"/>
+    <hyperlink ref="C216" r:id="rId212" xr:uid="{D1C38531-D276-4740-90D2-4178E6E1805A}"/>
+    <hyperlink ref="C217" r:id="rId213" xr:uid="{F3D0FEB3-18AB-1F41-82C7-EF28AAE0B3B6}"/>
+    <hyperlink ref="C218" r:id="rId214" xr:uid="{A88F8079-6DCE-2D48-BE5E-09260F26B94C}"/>
+    <hyperlink ref="C219" r:id="rId215" xr:uid="{FE0EFE23-EDCC-9A44-B243-13ACC010AE0C}"/>
+    <hyperlink ref="C220" r:id="rId216" xr:uid="{68906E11-349D-6A45-AE57-F4A5C3710867}"/>
+    <hyperlink ref="C221" r:id="rId217" xr:uid="{C8F9D2CA-46F5-134D-BE7F-6493395598A4}"/>
+    <hyperlink ref="C222" r:id="rId218" xr:uid="{54B8854E-718C-3D48-8772-58C8A5DA6558}"/>
+    <hyperlink ref="C223" r:id="rId219" xr:uid="{265D1197-AB56-F54A-BA88-1DC5C31420CF}"/>
+    <hyperlink ref="C224" r:id="rId220" xr:uid="{73A4627F-FF42-554E-9562-E00D6B3DC49F}"/>
+    <hyperlink ref="C225" r:id="rId221" xr:uid="{930353C9-4F28-844C-A7C8-09EB68121BF9}"/>
+    <hyperlink ref="C226" r:id="rId222" xr:uid="{2F2BE6AB-3F60-B84E-94B4-61E865117B1E}"/>
+    <hyperlink ref="C227" r:id="rId223" xr:uid="{4BBF9758-C1B9-1D45-A343-33882D3095C8}"/>
+    <hyperlink ref="C228" r:id="rId224" xr:uid="{A636C919-1981-264F-9A21-169FD064109A}"/>
+    <hyperlink ref="C229" r:id="rId225" xr:uid="{9FA03E2E-51C2-0A49-824F-ED302CBF400C}"/>
+    <hyperlink ref="C230" r:id="rId226" xr:uid="{6D7B5597-8DDF-214D-9847-678134C29B98}"/>
+    <hyperlink ref="C231" r:id="rId227" xr:uid="{29421019-A358-2E47-A49A-4EE8963DF89D}"/>
+    <hyperlink ref="C232" r:id="rId228" xr:uid="{B58B4010-BAFF-834B-8493-07E3C0D16FF5}"/>
+    <hyperlink ref="C233" r:id="rId229" xr:uid="{976796BE-5FE5-E642-917F-786B4E2004FB}"/>
+    <hyperlink ref="C234" r:id="rId230" xr:uid="{34646552-6F12-694B-AB91-0FF30A70924B}"/>
+    <hyperlink ref="C235" r:id="rId231" xr:uid="{974E5A42-0F88-6A48-83C2-C3517E7F0D93}"/>
+    <hyperlink ref="C236" r:id="rId232" xr:uid="{6C7BBEBC-E3FA-114A-9260-D0A37723EC90}"/>
+    <hyperlink ref="C237" r:id="rId233" xr:uid="{9B70097C-81A9-B442-A3A8-D021FDE72E20}"/>
+    <hyperlink ref="C238" r:id="rId234" xr:uid="{85120880-F87F-3149-965F-B5770C160172}"/>
+    <hyperlink ref="C239" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{590683B0-1AF3-0E4D-A65A-D0CD669A24DB}"/>
+    <hyperlink ref="C240" r:id="rId236" xr:uid="{B9E22A96-A401-AD43-A0AD-DE3D40F0CA17}"/>
+    <hyperlink ref="C241" r:id="rId237" xr:uid="{8526C25C-6C76-8A47-8B8C-AEC2F8053CD1}"/>
+    <hyperlink ref="C242" r:id="rId238" xr:uid="{D426338D-6427-FF43-BC8E-911D4BB372A9}"/>
+    <hyperlink ref="C243" r:id="rId239" xr:uid="{A3BED22C-D159-C440-B098-A9B291E9BE53}"/>
+    <hyperlink ref="C244" r:id="rId240" xr:uid="{A3E74F73-4771-194A-84A1-6418885652AD}"/>
+    <hyperlink ref="C245" r:id="rId241" xr:uid="{EFFD0A15-785D-EC4D-B8BE-B5A729F3D106}"/>
+    <hyperlink ref="C246" r:id="rId242" xr:uid="{5E2E793B-E74D-EE40-BE50-EE2BA9F139DC}"/>
+    <hyperlink ref="C247" r:id="rId243" xr:uid="{9BCD185A-525A-A64A-8E41-11FA8AD6AC8B}"/>
+    <hyperlink ref="C248" r:id="rId244" xr:uid="{71F63D07-813D-B04F-874F-5A714936A145}"/>
+    <hyperlink ref="C249" r:id="rId245" xr:uid="{D9148BE7-AD08-7441-8A2C-CC06C148F318}"/>
+    <hyperlink ref="C250" r:id="rId246" xr:uid="{7C4F2F35-CDED-604A-AB2E-5EFC0A00CD8B}"/>
+    <hyperlink ref="C251" r:id="rId247" xr:uid="{114CCC9A-6D7E-A443-802E-260F3B57FD93}"/>
+    <hyperlink ref="C252" r:id="rId248" xr:uid="{FE4DCFB1-69EC-964D-A4D3-809BE90B4695}"/>
+    <hyperlink ref="C253" r:id="rId249" xr:uid="{460E354C-73D5-D542-B9CF-A309AE6590EF}"/>
+    <hyperlink ref="C254" r:id="rId250" xr:uid="{55765D79-2B07-5545-A408-A30B35DAA483}"/>
+    <hyperlink ref="C255" r:id="rId251" xr:uid="{44C3591A-B24D-2940-B42B-0DBCDECBEF8C}"/>
+    <hyperlink ref="C256" r:id="rId252" xr:uid="{75F82FE6-FA07-9E49-ACA7-7A47ED6230AA}"/>
+    <hyperlink ref="C257" r:id="rId253" xr:uid="{4CC83774-9635-BD45-9C95-4120DB21012A}"/>
+    <hyperlink ref="C258" r:id="rId254" xr:uid="{088963E6-EA53-2641-82FA-6232BC6B33D8}"/>
+    <hyperlink ref="C259" r:id="rId255" xr:uid="{A2D5A206-F0B2-8C46-B978-67F61125FABC}"/>
+    <hyperlink ref="C260" r:id="rId256" xr:uid="{5B9814C7-D66A-5642-935A-B7BCD1779974}"/>
+    <hyperlink ref="C261" r:id="rId257" xr:uid="{45E24204-F6F0-C149-A440-B4E53FA7A101}"/>
+    <hyperlink ref="C262" r:id="rId258" xr:uid="{E20A1096-4D49-944E-91C1-12572DEC886E}"/>
+    <hyperlink ref="C263" r:id="rId259" xr:uid="{F39F92CD-D160-6C4D-B5C2-6DE544C90B3C}"/>
+    <hyperlink ref="C264" r:id="rId260" xr:uid="{3416048E-0E66-E44F-BE94-903B9EFF1046}"/>
+    <hyperlink ref="C265" r:id="rId261" xr:uid="{64EE1F88-19A8-8B40-878A-0CFEE3DFA429}"/>
+    <hyperlink ref="C266" r:id="rId262" xr:uid="{A891ABD7-C499-8D4F-80AC-FCCB0B3BB8F7}"/>
+    <hyperlink ref="C267" r:id="rId263" xr:uid="{484EEF9F-5D0E-674D-8946-6F2022BE8542}"/>
+    <hyperlink ref="C268" r:id="rId264" xr:uid="{8E3EFECD-0844-C44B-8657-F5F109B630C5}"/>
+    <hyperlink ref="C269" r:id="rId265" xr:uid="{4ECBBBE1-DEFD-3D4E-85B6-2998292EEE30}"/>
+    <hyperlink ref="C270" r:id="rId266" xr:uid="{6CFCB74A-0628-8F47-B872-5CB232358605}"/>
+    <hyperlink ref="C271" r:id="rId267" xr:uid="{37028846-FD51-A740-AEE7-7564182F488D}"/>
+    <hyperlink ref="C272" r:id="rId268" xr:uid="{CEC5B171-6E15-F846-BC3D-9B19255B9C1D}"/>
+    <hyperlink ref="C273" r:id="rId269" xr:uid="{6B1E0F95-B163-6A4C-B856-5464D3BC8DE9}"/>
+    <hyperlink ref="C274" r:id="rId270" xr:uid="{BB16C9D7-11DD-8C43-94CE-F849A2988E7C}"/>
+    <hyperlink ref="C275" r:id="rId271" xr:uid="{64379ABE-C11A-6A49-83CD-DD3DC9C0F635}"/>
+    <hyperlink ref="C276" r:id="rId272" xr:uid="{03DE5044-1759-5A4F-A84F-2A14124BAA50}"/>
+    <hyperlink ref="C277" r:id="rId273" xr:uid="{C181C615-29A6-8A46-8989-E5F9123DCEA5}"/>
+    <hyperlink ref="C278" r:id="rId274" xr:uid="{C3A24A53-3296-4540-9AE0-FBE8F3E77408}"/>
+    <hyperlink ref="C279" r:id="rId275" xr:uid="{E2F0F550-7960-834F-BB1F-28B9287C8B47}"/>
+    <hyperlink ref="C280" r:id="rId276" xr:uid="{A205A9B0-D94F-0047-8479-2D8F5FBA1A4A}"/>
+    <hyperlink ref="C281" r:id="rId277" xr:uid="{1210FBDE-226B-1B41-BC82-C087EA369DA7}"/>
+    <hyperlink ref="C282" r:id="rId278" xr:uid="{053CB8D2-D577-304F-906B-38BBEDFC1B02}"/>
+    <hyperlink ref="C283" r:id="rId279" xr:uid="{FB7E809B-A182-1E44-B20A-8402C4A7C38E}"/>
+    <hyperlink ref="C284" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{41843237-404D-BA45-AE92-53205151D371}"/>
+    <hyperlink ref="C285" r:id="rId281" xr:uid="{16035DDD-7DF4-5B48-92AD-F415C867B898}"/>
+    <hyperlink ref="C286" r:id="rId282" xr:uid="{605E4A5C-ED96-7142-8672-545BF44A79AF}"/>
+    <hyperlink ref="C287" r:id="rId283" xr:uid="{AC399E70-082A-1943-8BF4-D15703344793}"/>
+    <hyperlink ref="C288" r:id="rId284" xr:uid="{BD9B83FF-94A4-C443-BAFC-32509C2BE1C9}"/>
+    <hyperlink ref="C289" r:id="rId285" xr:uid="{147C6DAB-8639-BC49-A370-D3A0415DB310}"/>
+    <hyperlink ref="C290" r:id="rId286" xr:uid="{6A39B81D-F4E5-8647-8B10-1166F9BEF0C7}"/>
+    <hyperlink ref="C291" r:id="rId287" xr:uid="{1306DBAB-2615-5349-A4AB-E8D35425F9D1}"/>
+    <hyperlink ref="C292" r:id="rId288" xr:uid="{93202A86-768D-7043-B0D4-5A814CFF1C8E}"/>
+    <hyperlink ref="C293" r:id="rId289" xr:uid="{8452629F-98DD-8A40-9534-B281A7C08834}"/>
+    <hyperlink ref="C294" r:id="rId290" xr:uid="{E3A800F4-A614-2F4F-8248-4F6EF08652E7}"/>
+    <hyperlink ref="C295" r:id="rId291" xr:uid="{77DED77A-2299-6845-88D6-3347DD50FA19}"/>
+    <hyperlink ref="C296" r:id="rId292" xr:uid="{66D740BA-9F41-D94B-9D33-98B6B4A18660}"/>
+    <hyperlink ref="C297" r:id="rId293" xr:uid="{48AC5304-225D-C642-8D3A-3173F6DCEDB7}"/>
+    <hyperlink ref="C298" r:id="rId294" xr:uid="{7E9B0F7C-DA58-6F4D-AF64-18D3DC8BC8AD}"/>
+    <hyperlink ref="C299" r:id="rId295" xr:uid="{711046A3-7896-6444-AC9F-9B63800016AA}"/>
+    <hyperlink ref="C300" r:id="rId296" xr:uid="{AA371F99-8F18-D145-B38D-6761D6DFBAEF}"/>
+    <hyperlink ref="C301" r:id="rId297" xr:uid="{AC1A1A1D-1412-1F45-8D7B-4B23266FEADA}"/>
+    <hyperlink ref="C302" r:id="rId298" xr:uid="{99000746-A1D8-D246-A1AB-9507A2BCA22F}"/>
+    <hyperlink ref="C303" r:id="rId299" xr:uid="{781B81B0-2E0F-C64F-AACF-67300AA4C2F1}"/>
+    <hyperlink ref="C304" r:id="rId300" xr:uid="{DEBEDB25-5E55-5845-BDEE-456E4AE8D348}"/>
+    <hyperlink ref="C305" r:id="rId301" xr:uid="{FF9FAD82-DFC2-3B4D-8D2A-EEAF580A0A02}"/>
+    <hyperlink ref="C306" r:id="rId302" xr:uid="{F4075F2E-7B19-D64F-A974-27C718C17C2D}"/>
+    <hyperlink ref="C307" r:id="rId303" xr:uid="{9E3EBFFA-F97D-FC47-AD65-1918ABCC681E}"/>
+    <hyperlink ref="C308" r:id="rId304" xr:uid="{DE255DD2-57FA-5C41-8A6C-047433610316}"/>
+    <hyperlink ref="C309" r:id="rId305" xr:uid="{0B115096-1355-B24B-9E0B-7E4EA4586EF8}"/>
+    <hyperlink ref="C310" r:id="rId306" xr:uid="{361F8B26-4396-954A-AAFB-281026C7550E}"/>
+    <hyperlink ref="C311" r:id="rId307" xr:uid="{2A0351FE-82BD-B548-82B1-B252B221B901}"/>
+    <hyperlink ref="C312" r:id="rId308" xr:uid="{25E60956-EED8-CB47-9A05-0217EC24699C}"/>
+    <hyperlink ref="C313" r:id="rId309" xr:uid="{AD950F59-1E29-6043-9F05-9BD79BC52572}"/>
+    <hyperlink ref="C314" r:id="rId310" xr:uid="{ADCBD4E9-1AEF-FB49-941A-5A3EC97A20B1}"/>
+    <hyperlink ref="C315" r:id="rId311" xr:uid="{E9E72AB7-DE43-0743-89BE-78D88D993A6D}"/>
+    <hyperlink ref="C316" r:id="rId312" xr:uid="{10FFFD2B-1583-F744-AB65-6504B8824C0A}"/>
+    <hyperlink ref="C317" r:id="rId313" xr:uid="{793BE430-D6B0-3847-AE26-38A407421320}"/>
+    <hyperlink ref="C318" r:id="rId314" xr:uid="{2EF59847-9284-7F4D-8CBC-1064249F8D2F}"/>
+    <hyperlink ref="C319" r:id="rId315" xr:uid="{A54941D1-38F3-764F-9C44-D8568808CFAD}"/>
+    <hyperlink ref="C320" r:id="rId316" xr:uid="{6EF7CFA8-8DC6-B846-9FB3-E95B5F0306BF}"/>
+    <hyperlink ref="C321" r:id="rId317" xr:uid="{B76D9BC8-AD47-744A-8106-639497A45B69}"/>
+    <hyperlink ref="C322" r:id="rId318" xr:uid="{3C75EF6F-359C-C14C-BF0E-B5EF877585A8}"/>
+    <hyperlink ref="C323" r:id="rId319" xr:uid="{DDCFD5CC-E06E-3F48-8AF3-8D658BC2B8DF}"/>
+    <hyperlink ref="C324" r:id="rId320" xr:uid="{06F9882D-895A-AC48-B66E-74A3B02FF2D7}"/>
+    <hyperlink ref="C325" r:id="rId321" xr:uid="{B457C672-E409-8744-888F-4598CE8E351F}"/>
+    <hyperlink ref="C326" r:id="rId322" xr:uid="{AE361196-F504-B746-A5E3-32838B929834}"/>
+    <hyperlink ref="C327" r:id="rId323" xr:uid="{F74965C9-2478-1141-8C59-DC0EB9ADD474}"/>
+    <hyperlink ref="C328" r:id="rId324" xr:uid="{09D94E31-9A74-BF47-B78D-03C923FEB182}"/>
+    <hyperlink ref="C329" r:id="rId325" xr:uid="{0976145A-4909-9542-94D8-1E34B1CA8A39}"/>
+    <hyperlink ref="C331" r:id="rId326" xr:uid="{2CF3152C-7402-1649-9E6E-5019C925E167}"/>
+    <hyperlink ref="C332" r:id="rId327" xr:uid="{C619E2B1-89A9-ED46-8462-31EF1DDCA710}"/>
+    <hyperlink ref="C333" r:id="rId328" xr:uid="{7F4E3E04-F0FE-9143-89B1-FC1F741F0D9E}"/>
+    <hyperlink ref="C334" r:id="rId329" xr:uid="{2E4ACFC6-A87F-0745-B1A0-F2436417CC0D}"/>
+    <hyperlink ref="C335" r:id="rId330" xr:uid="{79C73206-0646-C74B-9BA7-C438726B536E}"/>
+    <hyperlink ref="C336" r:id="rId331" xr:uid="{A3A94FE5-AA4D-9D4E-827F-9294E89FC5C1}"/>
+    <hyperlink ref="C337" r:id="rId332" xr:uid="{6F363984-E88B-034E-8B45-D150A6CA1AA5}"/>
+    <hyperlink ref="C338" r:id="rId333" xr:uid="{4D3D05F3-2B26-5840-8063-FB1D55D92DC3}"/>
+    <hyperlink ref="C339" r:id="rId334" xr:uid="{08CDCA80-A885-684A-AEC3-5EC3D194237C}"/>
+    <hyperlink ref="C340" r:id="rId335" xr:uid="{15A0FA96-483E-6F45-B35F-5D2BF10A7CF8}"/>
+    <hyperlink ref="C341" r:id="rId336" xr:uid="{9DBAFB6E-EEA3-6441-8740-5F61E988483F}"/>
+    <hyperlink ref="C342" r:id="rId337" xr:uid="{597505BD-DC26-7648-B132-251FFDA981AC}"/>
+    <hyperlink ref="C343" r:id="rId338" xr:uid="{741942F1-F18D-AA4F-8F2D-F5189B3258FA}"/>
+    <hyperlink ref="C344" r:id="rId339" xr:uid="{7E8E4420-824F-A64C-9794-519A06A3674E}"/>
+    <hyperlink ref="C345" r:id="rId340" xr:uid="{95B1D3A7-0078-4545-BA3B-D7EF7D9C07ED}"/>
+    <hyperlink ref="C346" r:id="rId341" xr:uid="{5935C5D2-C3CB-6548-A7D7-ECB02292B1B3}"/>
+    <hyperlink ref="C347" r:id="rId342" xr:uid="{98D97FDF-AA6D-B749-B505-AF86C9826289}"/>
+    <hyperlink ref="C348" r:id="rId343" xr:uid="{AB687B5E-82A7-124E-98CF-FE2434812C5C}"/>
+    <hyperlink ref="C349" r:id="rId344" xr:uid="{8274F85F-F1B0-8E47-9DFE-A0E408693CB1}"/>
+    <hyperlink ref="C350" r:id="rId345" xr:uid="{DA11F87E-B96B-0943-B62D-FC04C2527246}"/>
+    <hyperlink ref="C351" r:id="rId346" xr:uid="{D5809FA2-709A-8447-8CFB-7FD3561A6E13}"/>
+    <hyperlink ref="C352" r:id="rId347" xr:uid="{A8CC945B-FF61-6B46-8430-489C88094FD3}"/>
+    <hyperlink ref="C353" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{BF99077C-86AC-3242-BD6F-A521170A01B7}"/>
+    <hyperlink ref="C354" r:id="rId349" xr:uid="{0C290CD4-F6A5-8841-B76F-E7F94400B718}"/>
+    <hyperlink ref="C355" r:id="rId350" xr:uid="{B0ED906F-53FF-BB4A-83D4-411F30DCCC5E}"/>
+    <hyperlink ref="C356" r:id="rId351" xr:uid="{3C427F94-5011-ED40-8025-3B414FC097BB}"/>
+    <hyperlink ref="C357" r:id="rId352" xr:uid="{DE95B4A6-8663-364D-8816-9B3799EB42EC}"/>
+    <hyperlink ref="C358" r:id="rId353" xr:uid="{A3E373E6-6AFE-AF4C-B0B1-B47C22E36D45}"/>
+    <hyperlink ref="C359" r:id="rId354" xr:uid="{874E1D99-66CB-8A4C-8F16-A41787A8812C}"/>
+    <hyperlink ref="C360" r:id="rId355" xr:uid="{86811560-13DA-2B46-9E18-6CF4BB18713F}"/>
+    <hyperlink ref="C361" r:id="rId356" xr:uid="{7E9C1A27-BA43-354A-AA18-1F2D5AAE5F93}"/>
+    <hyperlink ref="C362" r:id="rId357" xr:uid="{32E866F8-ABB3-E740-9E2E-B11C656EBD3A}"/>
+    <hyperlink ref="C363" r:id="rId358" xr:uid="{209DE687-B584-0E4B-B4B8-1D0D975FB70A}"/>
+    <hyperlink ref="C364" r:id="rId359" xr:uid="{0A465293-7D23-7C47-BFEF-B76C59C750B7}"/>
+    <hyperlink ref="C365" r:id="rId360" xr:uid="{06A917D3-32E9-1A4D-87A0-218AA142FAAD}"/>
+    <hyperlink ref="C366" r:id="rId361" xr:uid="{F4E9888A-E54D-C64E-80C1-42459990DF21}"/>
+    <hyperlink ref="C367" r:id="rId362" xr:uid="{84ECEBAF-ACCC-EE46-8931-D19BC0034BF0}"/>
+    <hyperlink ref="C368" r:id="rId363" xr:uid="{CECBB894-D21D-9A4D-BDEA-CE48D35CBDEE}"/>
+    <hyperlink ref="C370" r:id="rId364" xr:uid="{C64BEB00-3BE2-C145-815F-BE35418AD548}"/>
+    <hyperlink ref="C369" r:id="rId365" xr:uid="{45F2DE75-9A48-9B49-BDB7-5D15F16E94A0}"/>
+    <hyperlink ref="C371" r:id="rId366" xr:uid="{6B4D58F7-ADDD-CF45-8127-6152EDAE7B4F}"/>
+    <hyperlink ref="C372" r:id="rId367" xr:uid="{366EC37F-1899-6F41-A075-C02735E420EF}"/>
+    <hyperlink ref="C373" r:id="rId368" xr:uid="{DC9523F0-80CA-BF49-A45C-5320209D8550}"/>
+    <hyperlink ref="C374" r:id="rId369" xr:uid="{89D2C6F3-642C-B548-B465-F03961878C87}"/>
+    <hyperlink ref="C375" r:id="rId370" xr:uid="{BB0C4666-3165-A74B-A5AC-46C40E63C115}"/>
+    <hyperlink ref="C376" r:id="rId371" xr:uid="{A23AE26A-12CF-784B-8A3F-C46C180A67CA}"/>
+    <hyperlink ref="C377" r:id="rId372" xr:uid="{1AF5DF99-7087-BB41-9157-A5DF31465DDE}"/>
+    <hyperlink ref="C378" r:id="rId373" xr:uid="{A7383E77-1985-D840-A603-35080F9C94C0}"/>
+    <hyperlink ref="C379" r:id="rId374" xr:uid="{DE6F78E4-7C75-A34F-A6CF-CA30D8C99F03}"/>
+    <hyperlink ref="C380" r:id="rId375" xr:uid="{74232384-06F0-5F48-9504-DA7A9806964A}"/>
+    <hyperlink ref="C381" r:id="rId376" xr:uid="{CFB4D136-C0FA-F944-B3BD-6D33273B84CA}"/>
+    <hyperlink ref="C382" r:id="rId377" xr:uid="{C496DA3A-3BE2-E848-BEE6-A47F9A846429}"/>
+    <hyperlink ref="C383" r:id="rId378" xr:uid="{1D2A129E-B1DE-C244-91F5-6AC7EC387A25}"/>
+    <hyperlink ref="C384" r:id="rId379" xr:uid="{6B555899-C123-414F-94F6-8B304B8DAB01}"/>
+    <hyperlink ref="C385" r:id="rId380" xr:uid="{138BAC35-7EBE-BD46-A01A-57E793EEAA64}"/>
+    <hyperlink ref="C386" r:id="rId381" xr:uid="{E8765477-DF0A-8141-9FE1-89A9F762DAE7}"/>
+    <hyperlink ref="C387" r:id="rId382" xr:uid="{64942A0E-C7AC-0B4D-A7BF-EBCA064E3A0A}"/>
+    <hyperlink ref="C388" r:id="rId383" xr:uid="{336C80DB-D47C-2F4C-9BB1-8F06795FDBAA}"/>
+    <hyperlink ref="C389" r:id="rId384" xr:uid="{D50A1E7A-12DE-174C-AAE2-FE097FB2CEC4}"/>
+    <hyperlink ref="C390" r:id="rId385" xr:uid="{CCA8437D-F0E6-E840-8AB0-A4AE3E2C6282}"/>
+    <hyperlink ref="C391" r:id="rId386" xr:uid="{7E366500-7B28-B34C-813D-C0A994EA0700}"/>
+    <hyperlink ref="C392" r:id="rId387" xr:uid="{E9005EFF-D48D-4940-B83B-CEC04D38C547}"/>
+    <hyperlink ref="C393" r:id="rId388" xr:uid="{647173CC-1D5E-B843-BA75-80F19C3EA7CA}"/>
+    <hyperlink ref="C394" r:id="rId389" xr:uid="{E94EE689-66BC-1442-A8CD-1E19A74BDD9D}"/>
+    <hyperlink ref="C395" r:id="rId390" xr:uid="{0DE48DA1-C9C8-3E4B-A819-3F42EDFCEEFF}"/>
+    <hyperlink ref="C396" r:id="rId391" xr:uid="{30431571-8E79-6140-945F-3793F8F241EF}"/>
+    <hyperlink ref="C397" r:id="rId392" xr:uid="{2364D7BC-F8F7-7047-B328-9D3E6C2753DC}"/>
+    <hyperlink ref="C398" r:id="rId393" xr:uid="{873B5686-9662-8C42-A359-D8B5DEDA0D0C}"/>
+    <hyperlink ref="C399" r:id="rId394" xr:uid="{BB9666FE-A7A8-AC44-B2C0-07C7026F0D6B}"/>
+    <hyperlink ref="C400" r:id="rId395" xr:uid="{B61E863D-44C2-3949-8932-FEE7D135DED1}"/>
+    <hyperlink ref="C401" r:id="rId396" xr:uid="{252DF375-5A72-C74A-82D5-1742DF368301}"/>
+    <hyperlink ref="C402" r:id="rId397" xr:uid="{668CBA3E-3C1E-724D-AF04-A8899DE842E9}"/>
+    <hyperlink ref="C403" r:id="rId398" xr:uid="{9CE33E06-A21C-0245-B3C0-F0BB0A061B2F}"/>
+    <hyperlink ref="C404" r:id="rId399" xr:uid="{E5ABD1C4-778F-E743-9D90-AAFC3E4CC20D}"/>
+    <hyperlink ref="C405" r:id="rId400" xr:uid="{1517E3D8-1BCE-4E47-B7C7-8B829EE92FCA}"/>
+    <hyperlink ref="C406" r:id="rId401" xr:uid="{E6145F89-4E1C-BC49-8705-6BB436B51FD9}"/>
+    <hyperlink ref="C407" r:id="rId402" xr:uid="{A16EA184-8967-454E-9F9D-56F49071A57A}"/>
+    <hyperlink ref="C408" r:id="rId403" xr:uid="{B37D8A7E-53F6-524E-A8D2-F0A9792FC347}"/>
+    <hyperlink ref="C409" r:id="rId404" xr:uid="{D8623E69-3CD6-D542-BFAD-7A28BF435BC4}"/>
+    <hyperlink ref="C410" r:id="rId405" xr:uid="{D27DDAB2-F123-9D42-A14D-519A930C38B0}"/>
+    <hyperlink ref="C411" r:id="rId406" xr:uid="{FE5E25FA-FBFE-B04F-96EB-04D75DF74682}"/>
+    <hyperlink ref="C412" r:id="rId407" xr:uid="{3D838957-B6E0-474C-8C73-1B6A8484A471}"/>
+    <hyperlink ref="C413" r:id="rId408" xr:uid="{22B8ABD0-4CAC-FF45-A1CF-803DD8E3F7F6}"/>
+    <hyperlink ref="C414" r:id="rId409" xr:uid="{3F8DCB3F-9D6F-4B42-B73D-DE147128DAE0}"/>
+    <hyperlink ref="C415" r:id="rId410" xr:uid="{D8482008-3413-4742-92AF-AD77D45D3519}"/>
+    <hyperlink ref="C416" r:id="rId411" xr:uid="{804BC9CE-1099-C645-8C5A-E42499AEC775}"/>
+    <hyperlink ref="C417" r:id="rId412" xr:uid="{85E45711-7B37-D648-A883-B28894E701D9}"/>
+    <hyperlink ref="C418" r:id="rId413" xr:uid="{38472C18-0CF0-5B4E-8B1F-721E6338F252}"/>
+    <hyperlink ref="C419" r:id="rId414" xr:uid="{AC9BC2B8-37A8-B042-BCD5-16636F35EEAB}"/>
+    <hyperlink ref="C421" r:id="rId415" xr:uid="{F932729D-6807-E34D-96A1-571AE6757E91}"/>
+    <hyperlink ref="C420" r:id="rId416" xr:uid="{2D7CC17E-AA40-AF4A-8A5D-67818CE8BBA1}"/>
+    <hyperlink ref="C422" r:id="rId417" xr:uid="{368A1BB7-5B3F-5A4C-B0DE-174C565FE1B2}"/>
+    <hyperlink ref="C423" r:id="rId418" xr:uid="{B20300CB-09B0-7A41-8F42-2FC4426FD18C}"/>
+    <hyperlink ref="C424" r:id="rId419" xr:uid="{53E80109-9A5E-264A-9F4B-DF287A9E74CC}"/>
+    <hyperlink ref="C425" r:id="rId420" xr:uid="{BA976CAA-DC62-444F-850C-524BFA5EFB64}"/>
+    <hyperlink ref="C426" r:id="rId421" xr:uid="{ECD06023-F4F4-1F4B-BB1D-7035F3480240}"/>
+    <hyperlink ref="C427" r:id="rId422" xr:uid="{6CCDF68F-AEEA-D541-BD90-333E6F36A3BF}"/>
+    <hyperlink ref="C428" r:id="rId423" xr:uid="{49574A4C-E722-5744-906C-DC423CE3073B}"/>
+    <hyperlink ref="C429" r:id="rId424" xr:uid="{6ABBFF6B-F02F-6C4E-BF86-68542F6C3002}"/>
+    <hyperlink ref="C430" r:id="rId425" xr:uid="{C9209BA9-B385-F249-B264-87C71EAA7447}"/>
+    <hyperlink ref="C431" r:id="rId426" xr:uid="{FB4C7E12-CF3F-274C-A121-F0370084C188}"/>
+    <hyperlink ref="C432" r:id="rId427" xr:uid="{F43C6D19-B40D-1246-A51D-1698CA70F765}"/>
+    <hyperlink ref="C439" r:id="rId428" xr:uid="{8A437378-5659-5549-932C-819002AA9A06}"/>
+    <hyperlink ref="C438" r:id="rId429" xr:uid="{BE834093-81D2-5040-A303-C7610BF1DF32}"/>
+    <hyperlink ref="C437" r:id="rId430" xr:uid="{933E3783-73CA-6C47-876B-056151F22AA2}"/>
+    <hyperlink ref="C436" r:id="rId431" xr:uid="{5CF689EA-1D75-D64C-9083-7D3EA4B0C42B}"/>
+    <hyperlink ref="C435" r:id="rId432" xr:uid="{78580255-9405-C04F-A726-CD9CCF5DB63A}"/>
+    <hyperlink ref="C434" r:id="rId433" xr:uid="{1C1804AA-627C-DB49-8442-2A82C1B23265}"/>
+    <hyperlink ref="C433" r:id="rId434" xr:uid="{50A3473B-2A8F-124B-BB61-65F07BEDCB34}"/>
+    <hyperlink ref="C440" r:id="rId435" xr:uid="{BA2CCDB1-F3D3-FE4B-B63F-ED0C5D86DB46}"/>
+    <hyperlink ref="C441" r:id="rId436" xr:uid="{3CDA13C5-1FD1-5F46-85D9-281087B5D67C}"/>
+    <hyperlink ref="C442" r:id="rId437" xr:uid="{9B9E7B01-D2EA-3F46-9BE5-23E4B4A06958}"/>
+    <hyperlink ref="C443" r:id="rId438" xr:uid="{34FA1870-A1E1-124F-BA99-1411792DCFDB}"/>
+    <hyperlink ref="C444" r:id="rId439" xr:uid="{46433F05-0453-6241-9C02-BE8B2BEFFF8F}"/>
+    <hyperlink ref="C445" r:id="rId440" xr:uid="{C0EF0059-E0F8-A648-BB1C-B4A568462AAA}"/>
+    <hyperlink ref="C446" r:id="rId441" xr:uid="{48FA9A4D-DAB9-ED4F-AE84-EF63D082A87D}"/>
+    <hyperlink ref="C449" r:id="rId442" xr:uid="{BC94725F-4627-0843-82B6-D11C8D46853C}"/>
+    <hyperlink ref="C447" r:id="rId443" xr:uid="{E441505A-C6EC-EE44-A978-B3E31ADEDCC9}"/>
+    <hyperlink ref="C448" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{690D11BC-45D4-444C-9897-6A03D8F4D850}"/>
+    <hyperlink ref="C330" r:id="rId445" xr:uid="{5EF77161-DDE4-6648-BCBF-A435FB15EFDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>